--- a/app/docs/templates/Example.xlsx
+++ b/app/docs/templates/Example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polin\Desktop\Контингент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\polin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B861DD57-A0C6-4B62-B11F-F479889B6C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD57C73F-4A25-43CD-86BB-DE07216BDDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Персональные данные</t>
   </si>
@@ -39,21 +39,9 @@
     <t>Льготы</t>
   </si>
   <si>
-    <t>Стипендия</t>
-  </si>
-  <si>
     <t>Военная информация</t>
   </si>
   <si>
-    <t>Справочная информация</t>
-  </si>
-  <si>
-    <t xml:space="preserve">История </t>
-  </si>
-  <si>
-    <t>Приказы</t>
-  </si>
-  <si>
     <t>Имя</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>Удостов. личности</t>
   </si>
   <si>
-    <t>Адрес</t>
-  </si>
-  <si>
     <t>Снилс</t>
   </si>
   <si>
@@ -129,30 +114,12 @@
     <t>Форма обуч. $</t>
   </si>
   <si>
-    <t>Дата начала обуч.</t>
-  </si>
-  <si>
-    <t>Дата окончания обуч.</t>
-  </si>
-  <si>
-    <t>Срок обуч.</t>
-  </si>
-  <si>
     <t>Профиль обуч.</t>
   </si>
   <si>
     <t>Период обуч.</t>
   </si>
   <si>
-    <t>Текущий год обуч.</t>
-  </si>
-  <si>
-    <t>Форма</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
     <t>Статус</t>
   </si>
   <si>
@@ -165,22 +132,100 @@
     <t>Документ</t>
   </si>
   <si>
-    <t>Родители</t>
-  </si>
-  <si>
-    <t>Контакты родственников</t>
-  </si>
-  <si>
-    <t>Места работы родственников</t>
-  </si>
-  <si>
-    <t>Адреса родственников</t>
-  </si>
-  <si>
-    <t>История перемещений (курс)</t>
-  </si>
-  <si>
-    <t>История статусов</t>
+    <t>Адрес проживания</t>
+  </si>
+  <si>
+    <t>Адрес регистрации</t>
+  </si>
+  <si>
+    <t>Образование</t>
+  </si>
+  <si>
+    <t>Документ об образовании</t>
+  </si>
+  <si>
+    <t>Серийный номер документа</t>
+  </si>
+  <si>
+    <t>Академическая стипендия</t>
+  </si>
+  <si>
+    <t>Социальная стипендия</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Тында</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Паспорт</t>
+  </si>
+  <si>
+    <t>Краснодар</t>
+  </si>
+  <si>
+    <t>студент</t>
+  </si>
+  <si>
+    <t>ж</t>
+  </si>
+  <si>
+    <t>Аттестат 11 класс</t>
+  </si>
+  <si>
+    <t>po@mail.ru</t>
+  </si>
+  <si>
+    <t>Математика и Компьютерные науки</t>
+  </si>
+  <si>
+    <t>Вычеслительна математика и информатика</t>
+  </si>
+  <si>
+    <t>очно</t>
+  </si>
+  <si>
+    <t>42/1</t>
+  </si>
+  <si>
+    <t>бакалавр</t>
+  </si>
+  <si>
+    <t>бюджет</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Дополнительно</t>
+  </si>
+  <si>
+    <t>Родитель 1</t>
+  </si>
+  <si>
+    <t>Родитель 2</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>Золотухина</t>
+  </si>
+  <si>
+    <t>Тип льгот</t>
+  </si>
+  <si>
+    <t>Начало обучения</t>
+  </si>
+  <si>
+    <t>Конец обучения</t>
   </si>
 </sst>
 </file>
@@ -196,12 +241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Aptos Narrow"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Aptos Narrow"/>
@@ -213,8 +252,16 @@
       <name val="Aptos Narrow"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,37 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE49EDD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7C7AC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF4EA72E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0D0D0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6C9EC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,12 +300,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,92 +334,62 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,229 +668,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="17.399999999999999">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:41" ht="17.399999999999999">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="12"/>
+      <c r="P1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="6" t="s">
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="15"/>
+      <c r="AO1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:41" ht="15.6">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="13">
+        <v>37880</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3">
+        <v>23232313</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3">
+        <v>323243</v>
+      </c>
+      <c r="P3">
+        <v>88005353535</v>
+      </c>
+      <c r="Q3">
+        <v>88005353535</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T3">
         <v>4</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT1" s="11"/>
-    </row>
-    <row r="2" spans="1:46" ht="15.6">
-      <c r="A2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI2" s="13" t="s">
+      <c r="U3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3">
         <v>42</v>
       </c>
-      <c r="AJ2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL2" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT2" s="1"/>
+      <c r="Y3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3">
+        <v>343423</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>2021</v>
+      </c>
+      <c r="AH3">
+        <v>2025</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AS1:AT1"/>
+  <mergeCells count="6">
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:AE1"/>
-    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AM1:AN1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R3" r:id="rId1" xr:uid="{0C123D98-2C1E-42AE-9883-5A320A8BD245}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>